--- a/src/test/resources/ExcelData/Registration.xlsx
+++ b/src/test/resources/ExcelData/Registration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JALA\src\test\resources\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6ABE0B-5ECE-48FF-81E3-56B753C74B69}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B03A6CA-9C7C-48D8-B1F9-D81833EF962F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9708" xr2:uid="{9C136ED1-5D19-429D-8A50-78B9C7B2B87D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>First Name</t>
   </si>
@@ -42,21 +42,9 @@
     <t>Date Of Birth</t>
   </si>
   <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
     <t>Country</t>
   </si>
   <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>Skiils</t>
-  </si>
-  <si>
     <t>Swathi</t>
   </si>
   <si>
@@ -66,13 +54,13 @@
     <t>swathitelukula5@gmail.com</t>
   </si>
   <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>vizag</t>
-  </si>
-  <si>
-    <t>Bangladesh</t>
+    <t>9959638817</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bangladesh</t>
   </si>
 </sst>
 </file>
@@ -117,10 +105,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -436,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36538F59-152A-4A89-87E8-F2D8EFFB454C}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -448,11 +437,10 @@
     <col min="3" max="3" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -471,43 +459,25 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2">
-        <v>9959638817</v>
-      </c>
-      <c r="E2" s="2">
-        <v>35171</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
